--- a/pred_ohlcv/54_21/2020-01-13 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 FX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-96254.19002705556</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-189269.4497270556</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-184815.3760270556</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-183755.0863270556</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-176100.0721270556</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-173708.4340586074</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-155884.2537971651</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-154719.2585823344</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-154719.2585823344</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-154719.2585823344</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-162640.6780823343</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-162632.6780823343</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-164416.7212823344</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-164416.7212823344</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-164416.7212823344</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-164408.7212823344</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-179004.8832823344</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-178996.8832823344</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-185028.2595823344</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-175059.6918823344</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-180727.8243823344</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-178811.4115823344</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-160322.664023775</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-193618.345423775</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-233638.345423775</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-299911.4171467655</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-299911.4171467655</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-299903.4171467655</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-299903.4171467655</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-301803.5486467655</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-327751.2341467655</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-327751.2341467655</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-327743.2341467655</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-327993.2674467655</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-327985.2674467655</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-343282.6392467655</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-343251.3980467655</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-343251.3980467655</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-343251.3980467655</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-353017.6153467656</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-356107.2336467655</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-353283.2000467655</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 FX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-96254.19002705556</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-189269.4497270556</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-184815.3760270556</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-183755.0863270556</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-176100.0721270556</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-154719.2585823344</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-154719.2585823344</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-154719.2585823344</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-162640.6780823343</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-162632.6780823343</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-164416.7212823344</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-164416.7212823344</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-164416.7212823344</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-164408.7212823344</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-185028.2595823344</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-175059.6918823344</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-180727.8243823344</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-178811.4115823344</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-160322.664023775</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-161460.878623775</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-299911.4171467655</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-299903.4171467655</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-300501.8500467655</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-327743.2341467655</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-327993.2674467655</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-327985.2674467655</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-343282.6392467655</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-343251.3980467655</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-343251.3980467655</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-356107.2336467655</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-353283.2000467655</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-368977.0759467655</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
